--- a/summary/sppb-psat-finish-2021-12.xlsx
+++ b/summary/sppb-psat-finish-2021-12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>kode pengajuan</t>
   </si>
@@ -76,6 +76,18 @@
     <t>Sun Dec 27 2026 05:42:58 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
+    <t>permohonan/52/sppb</t>
+  </si>
+  <si>
+    <t>oneon.id</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>Sat Feb 27 2027 20:47:43 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/51/sppb</t>
   </si>
   <si>
@@ -88,21 +100,6 @@
     <t>Sat Dec 26 2026 09:26:04 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
-    <t>permohonan/47/sppb</t>
-  </si>
-  <si>
-    <t>oneon.id</t>
-  </si>
-  <si>
-    <t>Dokumen Ditolak</t>
-  </si>
-  <si>
-    <t>permohonan/46/sppb</t>
-  </si>
-  <si>
-    <t>permohonan/45/sppb</t>
-  </si>
-  <si>
     <t>pengalihan/43/sppb</t>
   </si>
   <si>
@@ -133,40 +130,22 @@
     <t>Pt cobaa</t>
   </si>
   <si>
+    <t>permohonan/38/sppb</t>
+  </si>
+  <si>
+    <t>PT. Total Buah </t>
+  </si>
+  <si>
     <t>pengalihan/37/sppb</t>
   </si>
   <si>
-    <t>pengalihan/36/sppb</t>
-  </si>
-  <si>
     <t>permohonan/31/sppb</t>
   </si>
   <si>
     <t>PT jaya abadi oke</t>
   </si>
   <si>
-    <t>permohonan/30/sppb</t>
-  </si>
-  <si>
-    <t>PT Test</t>
-  </si>
-  <si>
-    <t>permohonan/29/sppb</t>
-  </si>
-  <si>
-    <t>permohonan/25/sppb</t>
-  </si>
-  <si>
-    <t>PT, Total Harvest Cemerlang </t>
-  </si>
-  <si>
-    <t>pengalihan/20/sppb</t>
-  </si>
-  <si>
-    <t>AB111121</t>
-  </si>
-  <si>
-    <t>Sat Jan 08 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
+    <t>permohonan/27/sppb</t>
   </si>
 </sst>
 </file>
@@ -206,7 +185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -347,36 +326,36 @@
         <v>26</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>12</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E7" s="0" t="s">
         <v>11</v>
@@ -385,24 +364,24 @@
         <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>11</v>
@@ -411,24 +390,24 @@
         <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
         <v>11</v>
@@ -437,24 +416,24 @@
         <v>12</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>11</v>
@@ -463,18 +442,18 @@
         <v>12</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -497,16 +476,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>11</v>
@@ -523,16 +502,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>11</v>
@@ -549,16 +528,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>11</v>
@@ -571,318 +550,6 @@
       </c>
       <c r="H14" s="0" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H25" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/summary/sppb-psat-finish-2021-12.xlsx
+++ b/summary/sppb-psat-finish-2021-12.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>kode pengajuan</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Wed Dec 30 2026 05:54:20 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
-    <t>[object Object]</t>
+    <t>Wed Dec 29 2021 16:38:51 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
     <t>pengalihan/71/sppb</t>
@@ -70,6 +70,9 @@
     <t>PENGALIHAN</t>
   </si>
   <si>
+    <t>Wed Dec 29 2021 10:33:31 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/55/sppb</t>
   </si>
   <si>
@@ -79,6 +82,12 @@
     <t>Sun Dec 27 2026 05:42:58 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
+    <t>Mon Dec 27 2021 04:30:21 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Mon Dec 27 2021 05:24:20 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/52/sppb</t>
   </si>
   <si>
@@ -91,6 +100,12 @@
     <t>Mon Mar 08 2027 13:58:53 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
+    <t>Mon Dec 27 2021 03:54:37 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Tue Jan 25 2022 10:26:23 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/51/sppb</t>
   </si>
   <si>
@@ -103,6 +118,9 @@
     <t>Sat Dec 26 2026 09:26:04 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
+    <t>Fri Dec 24 2021 13:48:25 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>pengalihan/43/sppb</t>
   </si>
   <si>
@@ -115,6 +133,9 @@
     <t>Thu Dec 24 2026 12:55:55 GMT+0800 (Taipei Standard Time)</t>
   </si>
   <si>
+    <t>Tue Dec 21 2021 04:53:50 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>perpanjangan/41/sppb</t>
   </si>
   <si>
@@ -124,6 +145,12 @@
     <t>PERPANJANGAN</t>
   </si>
   <si>
+    <t>Wed Dec 15 2021 14:26:16 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
+    <t>Fri Dec 17 2021 08:05:50 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/40/sppb</t>
   </si>
   <si>
@@ -139,16 +166,28 @@
     <t>PT. Total Buah </t>
   </si>
   <si>
+    <t>Fri Jan 21 2022 13:46:24 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>pengalihan/37/sppb</t>
   </si>
   <si>
+    <t>Wed Dec 15 2021 00:33:04 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/31/sppb</t>
   </si>
   <si>
     <t>PT jaya abadi oke</t>
   </si>
   <si>
+    <t>Mon Dec 13 2021 07:30:20 GMT+0800 (Taipei Standard Time)</t>
+  </si>
+  <si>
     <t>permohonan/27/sppb</t>
+  </si>
+  <si>
+    <t>Fri Dec 10 2021 06:44:35 GMT+0800 (Taipei Standard Time)</t>
   </si>
 </sst>
 </file>
@@ -188,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -217,7 +256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="0" t="s">
         <v>7</v>
       </c>
@@ -245,8 +284,11 @@
       <c r="I2" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
@@ -272,15 +314,18 @@
         <v>12</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -298,18 +343,21 @@
         <v>12</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>23</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -324,21 +372,24 @@
         <v>12</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -353,21 +404,24 @@
         <v>12</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="0" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
@@ -382,27 +436,30 @@
         <v>12</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>40</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="0" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>11</v>
@@ -411,21 +468,24 @@
         <v>12</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -446,15 +506,18 @@
         <v>12</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -475,15 +538,18 @@
         <v>12</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>9</v>
@@ -504,12 +570,15 @@
         <v>12</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>44</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="0" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>12</v>
@@ -533,44 +602,50 @@
         <v>12</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>53</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="0" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>9</v>
@@ -591,7 +666,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
